--- a/data-sample/question_and_answer/q_and_a_sample.xlsx
+++ b/data-sample/question_and_answer/q_and_a_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\paul\projects\knowledgebase-elastic-rag\data-sample\question_and_answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC2E4A7-A8A9-4ECE-83EE-2F73DFC727C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27183D03-71E2-4903-87A8-4D20A6D8DF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Question</t>
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Question 1</t>
   </si>
 </sst>
 </file>
@@ -348,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,12 +366,23 @@
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data-sample/question_and_answer/q_and_a_sample.xlsx
+++ b/data-sample/question_and_answer/q_and_a_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\paul\projects\knowledgebase-elastic-rag\data-sample\question_and_answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27183D03-71E2-4903-87A8-4D20A6D8DF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A661A0-ED2C-4BCB-8B4A-000D069F35D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Question 1</t>
+    <t>How many people can I hire?</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-sample/question_and_answer/q_and_a_sample.xlsx
+++ b/data-sample/question_and_answer/q_and_a_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\paul\projects\knowledgebase-elastic-rag\data-sample\question_and_answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A661A0-ED2C-4BCB-8B4A-000D069F35D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3C6CC-9EE0-461D-9136-858C45E34372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Question</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>How many people can I hire?</t>
+  </si>
+  <si>
+    <t>Is the grant available to a startup?</t>
   </si>
 </sst>
 </file>
@@ -354,15 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -385,6 +388,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-sample/question_and_answer/q_and_a_sample.xlsx
+++ b/data-sample/question_and_answer/q_and_a_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\paul\projects\knowledgebase-elastic-rag\data-sample\question_and_answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3C6CC-9EE0-461D-9136-858C45E34372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E356E-5DFD-41E8-834B-48D5F79FA630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>How many people can I hire?</t>
+    <t>Is the grant available to a startup?</t>
   </si>
   <si>
-    <t>Is the grant available to a startup?</t>
+    <t>I have a client who looking to hire a Chinese national with a recent masters in engineering. Is he eligible for support?</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +385,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data-sample/question_and_answer/q_and_a_sample.xlsx
+++ b/data-sample/question_and_answer/q_and_a_sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\paul\projects\knowledgebase-elastic-rag\data-sample\question_and_answer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\paul\projects\knowledgebase-elastic-rag-dev\data-sample\question_and_answer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E356E-5DFD-41E8-834B-48D5F79FA630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA00563-56C7-4F5D-940C-BC476061406C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -40,13 +34,28 @@
   </si>
   <si>
     <t>I have a client who looking to hire a Chinese national with a recent masters in engineering. Is he eligible for support?</t>
+  </si>
+  <si>
+    <t>What is the question you need answered?</t>
+  </si>
+  <si>
+    <t>Relevent_Documents</t>
+  </si>
+  <si>
+    <t>Suggested_Answer</t>
+  </si>
+  <si>
+    <t>Human_Feedback</t>
+  </si>
+  <si>
+    <t>Auto_flow_outbound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +63,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -71,17 +94,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -92,6 +176,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B94FB98-5F63-4011-A310-B415F7BACED4}" name="Table1" displayName="Table1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:F3" xr:uid="{5B94FB98-5F63-4011-A310-B415F7BACED4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BF181267-9A60-4611-8B42-E811AE967BFA}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{658A3C92-BF91-4C9B-B4D2-E88B1A6F79B4}" name="What is the question you need answered?"/>
+    <tableColumn id="3" xr3:uid="{85B73E6C-629E-4D01-ABAA-85FE1AB07E63}" name="Relevent_Documents"/>
+    <tableColumn id="4" xr3:uid="{2415F461-4479-4F9B-8DAE-3DF176AA2E55}" name="Suggested_Answer"/>
+    <tableColumn id="5" xr3:uid="{7D24185F-0B4F-4EAB-BBD9-8648FE1A9867}" name="Human_Feedback"/>
+    <tableColumn id="6" xr3:uid="{2301879D-7978-45D0-B127-D1C2E3AD8A5D}" name="Auto_flow_outbound"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,46 +456,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>